--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H2">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I2">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J2">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0526729216486042</v>
+        <v>0.052894</v>
       </c>
       <c r="N2">
-        <v>0.0526729216486042</v>
+        <v>0.105788</v>
       </c>
       <c r="O2">
-        <v>0.003571479909717638</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P2">
-        <v>0.003571479909717638</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q2">
-        <v>1.08238699531608</v>
+        <v>1.087240427967</v>
       </c>
       <c r="R2">
-        <v>1.08238699531608</v>
+        <v>4.348961711868</v>
       </c>
       <c r="S2">
-        <v>6.468101513910929E-05</v>
+        <v>5.456728637155261E-05</v>
       </c>
       <c r="T2">
-        <v>6.468101513910929E-05</v>
+        <v>3.371195799034963E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H3">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I3">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J3">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64733163008117</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N3">
-        <v>2.64733163008117</v>
+        <v>8.447531</v>
       </c>
       <c r="O3">
-        <v>0.1795019420846099</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P3">
-        <v>0.1795019420846099</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q3">
-        <v>54.40057697586837</v>
+        <v>57.8798932437485</v>
       </c>
       <c r="R3">
-        <v>54.40057697586837</v>
+        <v>347.279359462491</v>
       </c>
       <c r="S3">
-        <v>0.003250856263221171</v>
+        <v>0.002904922065574975</v>
       </c>
       <c r="T3">
-        <v>0.003250856263221171</v>
+        <v>0.002692014313477674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H4">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I4">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J4">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.423198927845002</v>
+        <v>0.226329</v>
       </c>
       <c r="N4">
-        <v>0.423198927845002</v>
+        <v>0.678987</v>
       </c>
       <c r="O4">
-        <v>0.0286949427012185</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P4">
-        <v>0.0286949427012185</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q4">
-        <v>8.696404178735669</v>
+        <v>4.6522108144845</v>
       </c>
       <c r="R4">
-        <v>8.696404178735669</v>
+        <v>27.913264886907</v>
       </c>
       <c r="S4">
-        <v>0.0005196775762964111</v>
+        <v>0.0002334888523686454</v>
       </c>
       <c r="T4">
-        <v>0.0005196775762964111</v>
+        <v>0.0002163759709985398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H5">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I5">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J5">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.439422695519237</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N5">
-        <v>0.439422695519237</v>
+        <v>1.684941</v>
       </c>
       <c r="O5">
-        <v>0.02979499294515617</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P5">
-        <v>0.02979499294515617</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q5">
-        <v>9.029789808315355</v>
+        <v>11.5446992975835</v>
       </c>
       <c r="R5">
-        <v>9.029789808315355</v>
+        <v>69.26819578550101</v>
       </c>
       <c r="S5">
-        <v>0.0005395999525327479</v>
+        <v>0.0005794145401883655</v>
       </c>
       <c r="T5">
-        <v>0.0005395999525327479</v>
+        <v>0.0005369480490057256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H6">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I6">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J6">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1855798851687</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N6">
-        <v>11.1855798851687</v>
+        <v>1.50581</v>
       </c>
       <c r="O6">
-        <v>0.7584366423592978</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P6">
-        <v>0.7584366423592978</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q6">
-        <v>229.8548442698082</v>
+        <v>10.317348589235</v>
       </c>
       <c r="R6">
-        <v>229.8548442698082</v>
+        <v>61.90409153541001</v>
       </c>
       <c r="S6">
-        <v>0.01373560909947142</v>
+        <v>0.0005178152877525343</v>
       </c>
       <c r="T6">
-        <v>0.01373560909947142</v>
+        <v>0.0004798635333066925</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>985.411543362938</v>
+        <v>20.5550805</v>
       </c>
       <c r="H7">
-        <v>985.411543362938</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I7">
-        <v>0.8684625670469396</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J7">
-        <v>0.8684625670469396</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0526729216486042</v>
+        <v>12.2520685</v>
       </c>
       <c r="N7">
-        <v>0.0526729216486042</v>
+        <v>24.504137</v>
       </c>
       <c r="O7">
-        <v>0.003571479909717638</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P7">
-        <v>0.003571479909717638</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q7">
-        <v>51.90450501518617</v>
+        <v>251.8422543090143</v>
       </c>
       <c r="R7">
-        <v>51.90450501518617</v>
+        <v>1007.369017236057</v>
       </c>
       <c r="S7">
-        <v>0.003101696610549952</v>
+        <v>0.01263965913871855</v>
       </c>
       <c r="T7">
-        <v>0.003101696610549952</v>
+        <v>0.007808848235468787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>985.411543362938</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H8">
-        <v>985.411543362938</v>
+        <v>3127.850708</v>
       </c>
       <c r="I8">
-        <v>0.8684625670469396</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J8">
-        <v>0.8684625670469396</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.64733163008117</v>
+        <v>0.052894</v>
       </c>
       <c r="N8">
-        <v>2.64733163008117</v>
+        <v>0.105788</v>
       </c>
       <c r="O8">
-        <v>0.1795019420846099</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P8">
-        <v>0.1795019420846099</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q8">
-        <v>2608.711147391808</v>
+        <v>55.14817844965066</v>
       </c>
       <c r="R8">
-        <v>2608.711147391808</v>
+        <v>330.8890706979039</v>
       </c>
       <c r="S8">
-        <v>0.1558907174127114</v>
+        <v>0.002767820593241325</v>
       </c>
       <c r="T8">
-        <v>0.1558907174127114</v>
+        <v>0.002564961291885511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>985.411543362938</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H9">
-        <v>985.411543362938</v>
+        <v>3127.850708</v>
       </c>
       <c r="I9">
-        <v>0.8684625670469396</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J9">
-        <v>0.8684625670469396</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.423198927845002</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N9">
-        <v>0.423198927845002</v>
+        <v>8.447531</v>
       </c>
       <c r="O9">
-        <v>0.0286949427012185</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P9">
-        <v>0.0286949427012185</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q9">
-        <v>417.0251086372841</v>
+        <v>2935.846202133549</v>
       </c>
       <c r="R9">
-        <v>417.0251086372841</v>
+        <v>26422.61581920195</v>
       </c>
       <c r="S9">
-        <v>0.02492048359956506</v>
+        <v>0.1473465816150822</v>
       </c>
       <c r="T9">
-        <v>0.02492048359956506</v>
+        <v>0.204820868406652</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>985.411543362938</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H10">
-        <v>985.411543362938</v>
+        <v>3127.850708</v>
       </c>
       <c r="I10">
-        <v>0.8684625670469396</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J10">
-        <v>0.8684625670469396</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.439422695519237</v>
+        <v>0.226329</v>
       </c>
       <c r="N10">
-        <v>0.439422695519237</v>
+        <v>0.678987</v>
       </c>
       <c r="O10">
-        <v>0.02979499294515617</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P10">
-        <v>0.02979499294515617</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q10">
-        <v>433.0121965803137</v>
+        <v>235.974440963644</v>
       </c>
       <c r="R10">
-        <v>433.0121965803137</v>
+        <v>2123.769968672796</v>
       </c>
       <c r="S10">
-        <v>0.02587583605829578</v>
+        <v>0.01184327271614391</v>
       </c>
       <c r="T10">
-        <v>0.02587583605829578</v>
+        <v>0.01646288211038556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>985.411543362938</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H11">
-        <v>985.411543362938</v>
+        <v>3127.850708</v>
       </c>
       <c r="I11">
-        <v>0.8684625670469396</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J11">
-        <v>0.8684625670469396</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1855798851687</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N11">
-        <v>11.1855798851687</v>
+        <v>1.684941</v>
       </c>
       <c r="O11">
-        <v>0.7584366423592978</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P11">
-        <v>0.7584366423592978</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q11">
-        <v>11022.39953805352</v>
+        <v>585.5826555320252</v>
       </c>
       <c r="R11">
-        <v>11022.39953805352</v>
+        <v>5270.243899788227</v>
       </c>
       <c r="S11">
-        <v>0.6586738333658173</v>
+        <v>0.02938968753983836</v>
       </c>
       <c r="T11">
-        <v>0.6586738333658173</v>
+        <v>0.04085348474411903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.443756546767467</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H12">
-        <v>0.443756546767467</v>
+        <v>3127.850708</v>
       </c>
       <c r="I12">
-        <v>0.0003910913692307111</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J12">
-        <v>0.0003910913692307111</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0526729216486042</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N12">
-        <v>0.0526729216486042</v>
+        <v>1.50581</v>
       </c>
       <c r="O12">
-        <v>0.003571479909717638</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P12">
-        <v>0.003571479909717638</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q12">
-        <v>0.02337395381893796</v>
+        <v>523.3276527348312</v>
       </c>
       <c r="R12">
-        <v>0.02337395381893796</v>
+        <v>4709.94887461348</v>
       </c>
       <c r="S12">
-        <v>1.396774968071448E-06</v>
+        <v>0.02626518400013057</v>
       </c>
       <c r="T12">
-        <v>1.396774968071448E-06</v>
+        <v>0.03651023143394451</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.443756546767467</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H13">
-        <v>0.443756546767467</v>
+        <v>3127.850708</v>
       </c>
       <c r="I13">
-        <v>0.0003910913692307111</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J13">
-        <v>0.0003910913692307111</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.64733163008117</v>
+        <v>12.2520685</v>
       </c>
       <c r="N13">
-        <v>2.64733163008117</v>
+        <v>24.504137</v>
       </c>
       <c r="O13">
-        <v>0.1795019420846099</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P13">
-        <v>0.1795019420846099</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q13">
-        <v>1.174770742313109</v>
+        <v>12774.21371072983</v>
       </c>
       <c r="R13">
-        <v>1.174770742313109</v>
+        <v>76645.282264379</v>
       </c>
       <c r="S13">
-        <v>7.020166030944188E-05</v>
+        <v>0.6411223863595749</v>
       </c>
       <c r="T13">
-        <v>7.020166030944188E-05</v>
+        <v>0.5941331993804547</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.443756546767467</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H14">
-        <v>0.443756546767467</v>
+        <v>2.45547</v>
       </c>
       <c r="I14">
-        <v>0.0003910913692307111</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J14">
-        <v>0.0003910913692307111</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.423198927845002</v>
+        <v>0.052894</v>
       </c>
       <c r="N14">
-        <v>0.423198927845002</v>
+        <v>0.105788</v>
       </c>
       <c r="O14">
-        <v>0.0286949427012185</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P14">
-        <v>0.0286949427012185</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q14">
-        <v>0.1877972948161925</v>
+        <v>0.04329321006</v>
       </c>
       <c r="R14">
-        <v>0.1877972948161925</v>
+        <v>0.25975926036</v>
       </c>
       <c r="S14">
-        <v>1.122234443101634E-05</v>
+        <v>2.172834021362849E-06</v>
       </c>
       <c r="T14">
-        <v>1.122234443101634E-05</v>
+        <v>2.013582517630223E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.443756546767467</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H15">
-        <v>0.443756546767467</v>
+        <v>2.45547</v>
       </c>
       <c r="I15">
-        <v>0.0003910913692307111</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J15">
-        <v>0.0003910913692307111</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.439422695519237</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N15">
-        <v>0.439422695519237</v>
+        <v>8.447531</v>
       </c>
       <c r="O15">
-        <v>0.02979499294515617</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P15">
-        <v>0.02979499294515617</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q15">
-        <v>0.1949966979348687</v>
+        <v>2.30473988273</v>
       </c>
       <c r="R15">
-        <v>0.1949966979348687</v>
+        <v>20.74265894457</v>
       </c>
       <c r="S15">
-        <v>1.16525645871405E-05</v>
+        <v>0.0001156721162659743</v>
       </c>
       <c r="T15">
-        <v>1.16525645871405E-05</v>
+        <v>0.0001607914010921783</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.443756546767467</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H16">
-        <v>0.443756546767467</v>
+        <v>2.45547</v>
       </c>
       <c r="I16">
-        <v>0.0003910913692307111</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J16">
-        <v>0.0003910913692307111</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>11.1855798851687</v>
+        <v>0.226329</v>
       </c>
       <c r="N16">
-        <v>11.1855798851687</v>
+        <v>0.678987</v>
       </c>
       <c r="O16">
-        <v>0.7584366423592978</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P16">
-        <v>0.7584366423592978</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q16">
-        <v>4.963674303434102</v>
+        <v>0.18524802321</v>
       </c>
       <c r="R16">
-        <v>4.963674303434102</v>
+        <v>1.66723220889</v>
       </c>
       <c r="S16">
-        <v>0.0002966180249350409</v>
+        <v>9.297374961640873E-06</v>
       </c>
       <c r="T16">
-        <v>0.0002966180249350409</v>
+        <v>1.292392665423481E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.20967780837969</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H17">
-        <v>1.20967780837969</v>
+        <v>2.45547</v>
       </c>
       <c r="I17">
-        <v>0.001066112835638062</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J17">
-        <v>0.001066112835638062</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0526729216486042</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N17">
-        <v>0.0526729216486042</v>
+        <v>1.684941</v>
       </c>
       <c r="O17">
-        <v>0.003571479909717638</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P17">
-        <v>0.003571479909717638</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q17">
-        <v>0.06371726442083865</v>
+        <v>0.45970245303</v>
       </c>
       <c r="R17">
-        <v>0.06371726442083865</v>
+        <v>4.137322077269999</v>
       </c>
       <c r="S17">
-        <v>3.807600573973442E-06</v>
+        <v>2.307191192945098E-05</v>
       </c>
       <c r="T17">
-        <v>3.807600573973442E-06</v>
+        <v>3.207138560931661E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.20967780837969</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H18">
-        <v>1.20967780837969</v>
+        <v>2.45547</v>
       </c>
       <c r="I18">
-        <v>0.001066112835638062</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J18">
-        <v>0.001066112835638062</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.64733163008117</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N18">
-        <v>2.64733163008117</v>
+        <v>1.50581</v>
       </c>
       <c r="O18">
-        <v>0.1795019420846099</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P18">
-        <v>0.1795019420846099</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q18">
-        <v>3.202418324330822</v>
+        <v>0.4108301423</v>
       </c>
       <c r="R18">
-        <v>3.202418324330822</v>
+        <v>3.6974712807</v>
       </c>
       <c r="S18">
-        <v>0.0001913693244783627</v>
+        <v>2.06190695712708E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001913693244783627</v>
+        <v>2.866178291368366E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.20967780837969</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H19">
-        <v>1.20967780837969</v>
+        <v>2.45547</v>
       </c>
       <c r="I19">
-        <v>0.001066112835638062</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J19">
-        <v>0.001066112835638062</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.423198927845002</v>
+        <v>12.2520685</v>
       </c>
       <c r="N19">
-        <v>0.423198927845002</v>
+        <v>24.504137</v>
       </c>
       <c r="O19">
-        <v>0.0286949427012185</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P19">
-        <v>0.0286949427012185</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q19">
-        <v>0.5119343515441765</v>
+        <v>10.028195546565</v>
       </c>
       <c r="R19">
-        <v>0.5119343515441765</v>
+        <v>60.16917327939</v>
       </c>
       <c r="S19">
-        <v>3.059204673166778E-05</v>
+        <v>0.0005033030451254981</v>
       </c>
       <c r="T19">
-        <v>3.059204673166778E-05</v>
+        <v>0.0004664149229857441</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.20967780837969</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H20">
-        <v>1.20967780837969</v>
+        <v>3.94397</v>
       </c>
       <c r="I20">
-        <v>0.001066112835638062</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J20">
-        <v>0.001066112835638062</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.439422695519237</v>
+        <v>0.052894</v>
       </c>
       <c r="N20">
-        <v>0.439422695519237</v>
+        <v>0.105788</v>
       </c>
       <c r="O20">
-        <v>0.02979499294515617</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P20">
-        <v>0.02979499294515617</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q20">
-        <v>0.5315598832680064</v>
+        <v>0.06953744972666667</v>
       </c>
       <c r="R20">
-        <v>0.5315598832680064</v>
+        <v>0.41722469836</v>
       </c>
       <c r="S20">
-        <v>3.176482441657651E-05</v>
+        <v>3.490000771841822E-06</v>
       </c>
       <c r="T20">
-        <v>3.176482441657651E-05</v>
+        <v>3.234211390103756E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.20967780837969</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H21">
-        <v>1.20967780837969</v>
+        <v>3.94397</v>
       </c>
       <c r="I21">
-        <v>0.001066112835638062</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J21">
-        <v>0.001066112835638062</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.1855798851687</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N21">
-        <v>11.1855798851687</v>
+        <v>8.447531</v>
       </c>
       <c r="O21">
-        <v>0.7584366423592978</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P21">
-        <v>0.7584366423592978</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q21">
-        <v>13.53094776094682</v>
+        <v>3.701867648674444</v>
       </c>
       <c r="R21">
-        <v>13.53094776094682</v>
+        <v>33.31680883807</v>
       </c>
       <c r="S21">
-        <v>0.0008085790394374818</v>
+        <v>0.0001857922745500921</v>
       </c>
       <c r="T21">
-        <v>0.0008085790394374818</v>
+        <v>0.0002582627611681342</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.5796401248952</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H22">
-        <v>17.5796401248952</v>
+        <v>3.94397</v>
       </c>
       <c r="I22">
-        <v>0.0154932824701088</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J22">
-        <v>0.0154932824701088</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.0526729216486042</v>
+        <v>0.226329</v>
       </c>
       <c r="N22">
-        <v>0.0526729216486042</v>
+        <v>0.678987</v>
       </c>
       <c r="O22">
-        <v>0.003571479909717638</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P22">
-        <v>0.003571479909717638</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q22">
-        <v>0.9259710069092635</v>
+        <v>0.29754492871</v>
       </c>
       <c r="R22">
-        <v>0.9259710069092635</v>
+        <v>2.67790435839</v>
       </c>
       <c r="S22">
-        <v>5.533394707757405E-05</v>
+        <v>1.493342127065807E-05</v>
       </c>
       <c r="T22">
-        <v>5.533394707757405E-05</v>
+        <v>2.075837986475195E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.5796401248952</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H23">
-        <v>17.5796401248952</v>
+        <v>3.94397</v>
       </c>
       <c r="I23">
-        <v>0.0154932824701088</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J23">
-        <v>0.0154932824701088</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.64733163008117</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N23">
-        <v>2.64733163008117</v>
+        <v>1.684941</v>
       </c>
       <c r="O23">
-        <v>0.1795019420846099</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P23">
-        <v>0.1795019420846099</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q23">
-        <v>46.53913734807914</v>
+        <v>0.7383729728633333</v>
       </c>
       <c r="R23">
-        <v>46.53913734807914</v>
+        <v>6.64535675577</v>
       </c>
       <c r="S23">
-        <v>0.002781074292649972</v>
+        <v>3.705804937237955E-05</v>
       </c>
       <c r="T23">
-        <v>0.002781074292649972</v>
+        <v>5.15129823217455E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.5796401248952</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H24">
-        <v>17.5796401248952</v>
+        <v>3.94397</v>
       </c>
       <c r="I24">
-        <v>0.0154932824701088</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J24">
-        <v>0.0154932824701088</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.423198927845002</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N24">
-        <v>0.423198927845002</v>
+        <v>1.50581</v>
       </c>
       <c r="O24">
-        <v>0.0286949427012185</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P24">
-        <v>0.0286949427012185</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q24">
-        <v>7.439684852756626</v>
+        <v>0.6598743850777778</v>
       </c>
       <c r="R24">
-        <v>7.439684852756626</v>
+        <v>5.938869465700001</v>
       </c>
       <c r="S24">
-        <v>0.0004445788527335651</v>
+        <v>3.311829988434186E-05</v>
       </c>
       <c r="T24">
-        <v>0.0004445788527335651</v>
+        <v>4.603648668404864E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.5796401248952</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H25">
-        <v>17.5796401248952</v>
+        <v>3.94397</v>
       </c>
       <c r="I25">
-        <v>0.0154932824701088</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J25">
-        <v>0.0154932824701088</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.439422695519237</v>
+        <v>12.2520685</v>
       </c>
       <c r="N25">
-        <v>0.439422695519237</v>
+        <v>24.504137</v>
       </c>
       <c r="O25">
-        <v>0.02979499294515617</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P25">
-        <v>0.02979499294515617</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q25">
-        <v>7.724892849939585</v>
+        <v>16.10726353398167</v>
       </c>
       <c r="R25">
-        <v>7.724892849939585</v>
+        <v>96.64358120389001</v>
       </c>
       <c r="S25">
-        <v>0.0004616222418942035</v>
+        <v>0.0008084041388750875</v>
       </c>
       <c r="T25">
-        <v>0.0004616222418942035</v>
+        <v>0.0007491545259392643</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.5796401248952</v>
+        <v>20.443657</v>
       </c>
       <c r="H26">
-        <v>17.5796401248952</v>
+        <v>61.330971</v>
       </c>
       <c r="I26">
-        <v>0.0154932824701088</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J26">
-        <v>0.0154932824701088</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.1855798851687</v>
+        <v>0.052894</v>
       </c>
       <c r="N26">
-        <v>11.1855798851687</v>
+        <v>0.105788</v>
       </c>
       <c r="O26">
-        <v>0.7584366423592978</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P26">
-        <v>0.7584366423592978</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q26">
-        <v>196.6384689695323</v>
+        <v>1.081346793358</v>
       </c>
       <c r="R26">
-        <v>196.6384689695323</v>
+        <v>6.488080760148</v>
       </c>
       <c r="S26">
-        <v>0.01175067313575349</v>
+        <v>5.427149195551902E-05</v>
       </c>
       <c r="T26">
-        <v>0.01175067313575349</v>
+        <v>5.029382195460999E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>109.468251615701</v>
+        <v>20.443657</v>
       </c>
       <c r="H27">
-        <v>109.468251615701</v>
+        <v>61.330971</v>
       </c>
       <c r="I27">
-        <v>0.09647652237142201</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J27">
-        <v>0.09647652237142201</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.0526729216486042</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N27">
-        <v>0.0526729216486042</v>
+        <v>8.447531</v>
       </c>
       <c r="O27">
-        <v>0.003571479909717638</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P27">
-        <v>0.003571479909717638</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q27">
-        <v>5.76601264036351</v>
+        <v>57.56614208695566</v>
       </c>
       <c r="R27">
-        <v>5.76601264036351</v>
+        <v>518.095278782601</v>
       </c>
       <c r="S27">
-        <v>0.000344563961408958</v>
+        <v>0.00288917527325404</v>
       </c>
       <c r="T27">
-        <v>0.000344563961408958</v>
+        <v>0.004016132454248578</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>109.468251615701</v>
+        <v>20.443657</v>
       </c>
       <c r="H28">
-        <v>109.468251615701</v>
+        <v>61.330971</v>
       </c>
       <c r="I28">
-        <v>0.09647652237142201</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J28">
-        <v>0.09647652237142201</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>2.64733163008117</v>
+        <v>0.226329</v>
       </c>
       <c r="N28">
-        <v>2.64733163008117</v>
+        <v>0.678987</v>
       </c>
       <c r="O28">
-        <v>0.1795019420846099</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P28">
-        <v>0.1795019420846099</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q28">
-        <v>289.7987649919294</v>
+        <v>4.626992445152999</v>
       </c>
       <c r="R28">
-        <v>289.7987649919294</v>
+        <v>41.642932006377</v>
       </c>
       <c r="S28">
-        <v>0.01731772313123956</v>
+        <v>0.0002322231728135642</v>
       </c>
       <c r="T28">
-        <v>0.01731772313123956</v>
+        <v>0.000322804583577483</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>109.468251615701</v>
+        <v>20.443657</v>
       </c>
       <c r="H29">
-        <v>109.468251615701</v>
+        <v>61.330971</v>
       </c>
       <c r="I29">
-        <v>0.09647652237142201</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J29">
-        <v>0.09647652237142201</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.423198927845002</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N29">
-        <v>0.423198927845002</v>
+        <v>1.684941</v>
       </c>
       <c r="O29">
-        <v>0.0286949427012185</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P29">
-        <v>0.0286949427012185</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q29">
-        <v>46.32684671683158</v>
+        <v>11.482118623079</v>
       </c>
       <c r="R29">
-        <v>46.32684671683158</v>
+        <v>103.339067607711</v>
       </c>
       <c r="S29">
-        <v>0.00276838828146078</v>
+        <v>0.0005762736915782772</v>
       </c>
       <c r="T29">
-        <v>0.00276838828146078</v>
+        <v>0.0008010560995389129</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>109.468251615701</v>
+        <v>20.443657</v>
       </c>
       <c r="H30">
-        <v>109.468251615701</v>
+        <v>61.330971</v>
       </c>
       <c r="I30">
-        <v>0.09647652237142201</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J30">
-        <v>0.09647652237142201</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.439422695519237</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N30">
-        <v>0.439422695519237</v>
+        <v>1.50581</v>
       </c>
       <c r="O30">
-        <v>0.02979499294515617</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P30">
-        <v>0.02979499294515617</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q30">
-        <v>48.10283419874941</v>
+        <v>10.26142104905667</v>
       </c>
       <c r="R30">
-        <v>48.10283419874941</v>
+        <v>92.35278944151</v>
       </c>
       <c r="S30">
-        <v>0.00287451730342972</v>
+        <v>0.0005150083519336793</v>
       </c>
       <c r="T30">
-        <v>0.00287451730342972</v>
+        <v>0.0007158934854375854</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>109.468251615701</v>
+        <v>20.443657</v>
       </c>
       <c r="H31">
-        <v>109.468251615701</v>
+        <v>61.330971</v>
       </c>
       <c r="I31">
-        <v>0.09647652237142201</v>
+        <v>0.01683809496630118</v>
       </c>
       <c r="J31">
-        <v>0.09647652237142201</v>
+        <v>0.01755595833477656</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.1855798851687</v>
+        <v>12.2520685</v>
       </c>
       <c r="N31">
-        <v>11.1855798851687</v>
+        <v>24.504137</v>
       </c>
       <c r="O31">
-        <v>0.7584366423592978</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P31">
-        <v>0.7584366423592978</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q31">
-        <v>1224.465873337171</v>
+        <v>250.4770859545045</v>
       </c>
       <c r="R31">
-        <v>1224.465873337171</v>
+        <v>1502.862515727027</v>
       </c>
       <c r="S31">
-        <v>0.07317132969388299</v>
+        <v>0.0125711429847661</v>
       </c>
       <c r="T31">
-        <v>0.07317132969388299</v>
+        <v>0.01164977789001939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>128.382446</v>
+      </c>
+      <c r="H32">
+        <v>256.764892</v>
+      </c>
+      <c r="I32">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J32">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.052894</v>
+      </c>
+      <c r="N32">
+        <v>0.105788</v>
+      </c>
+      <c r="O32">
+        <v>0.003223137300516178</v>
+      </c>
+      <c r="P32">
+        <v>0.002864772232626178</v>
+      </c>
+      <c r="Q32">
+        <v>6.790661098723999</v>
+      </c>
+      <c r="R32">
+        <v>27.162644394896</v>
+      </c>
+      <c r="S32">
+        <v>0.0003408150941545759</v>
+      </c>
+      <c r="T32">
+        <v>0.0002105573668879735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>128.382446</v>
+      </c>
+      <c r="H33">
+        <v>256.764892</v>
+      </c>
+      <c r="I33">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J33">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.815843666666666</v>
+      </c>
+      <c r="N33">
+        <v>8.447531</v>
+      </c>
+      <c r="O33">
+        <v>0.1715856383418833</v>
+      </c>
+      <c r="P33">
+        <v>0.2287617900239049</v>
+      </c>
+      <c r="Q33">
+        <v>361.5048974802752</v>
+      </c>
+      <c r="R33">
+        <v>2169.029384881652</v>
+      </c>
+      <c r="S33">
+        <v>0.01814349499715594</v>
+      </c>
+      <c r="T33">
+        <v>0.01681372068726632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>128.382446</v>
+      </c>
+      <c r="H34">
+        <v>256.764892</v>
+      </c>
+      <c r="I34">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J34">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.226329</v>
+      </c>
+      <c r="N34">
+        <v>0.678987</v>
+      </c>
+      <c r="O34">
+        <v>0.01379153480713362</v>
+      </c>
+      <c r="P34">
+        <v>0.01838718100270494</v>
+      </c>
+      <c r="Q34">
+        <v>29.056670620734</v>
+      </c>
+      <c r="R34">
+        <v>174.340023724404</v>
+      </c>
+      <c r="S34">
+        <v>0.001458319269575207</v>
+      </c>
+      <c r="T34">
+        <v>0.001351436031224378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>128.382446</v>
+      </c>
+      <c r="H35">
+        <v>256.764892</v>
+      </c>
+      <c r="I35">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J35">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.5616469999999999</v>
+      </c>
+      <c r="N35">
+        <v>1.684941</v>
+      </c>
+      <c r="O35">
+        <v>0.03422439965635062</v>
+      </c>
+      <c r="P35">
+        <v>0.04562873095637865</v>
+      </c>
+      <c r="Q35">
+        <v>72.10561564856198</v>
+      </c>
+      <c r="R35">
+        <v>432.6336938913719</v>
+      </c>
+      <c r="S35">
+        <v>0.003618893923443776</v>
+      </c>
+      <c r="T35">
+        <v>0.003353657695783916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>128.382446</v>
+      </c>
+      <c r="H36">
+        <v>256.764892</v>
+      </c>
+      <c r="I36">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J36">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5019366666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.50581</v>
+      </c>
+      <c r="O36">
+        <v>0.03058590374768572</v>
+      </c>
+      <c r="P36">
+        <v>0.0407778072712484</v>
+      </c>
+      <c r="Q36">
+        <v>64.43985700375333</v>
+      </c>
+      <c r="R36">
+        <v>386.63914202252</v>
+      </c>
+      <c r="S36">
+        <v>0.003234158738413317</v>
+      </c>
+      <c r="T36">
+        <v>0.002997120548961881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>128.382446</v>
+      </c>
+      <c r="H37">
+        <v>256.764892</v>
+      </c>
+      <c r="I37">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J37">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>12.2520685</v>
+      </c>
+      <c r="N37">
+        <v>24.504137</v>
+      </c>
+      <c r="O37">
+        <v>0.7465893861464306</v>
+      </c>
+      <c r="P37">
+        <v>0.6635797185131369</v>
+      </c>
+      <c r="Q37">
+        <v>1572.950522589551</v>
+      </c>
+      <c r="R37">
+        <v>6291.802090358204</v>
+      </c>
+      <c r="S37">
+        <v>0.07894449047937033</v>
+      </c>
+      <c r="T37">
+        <v>0.04877232355826905</v>
       </c>
     </row>
   </sheetData>
